--- a/Feature-Analysis/Resize Feature/s_30_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_30_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.41920138884</v>
+        <v>738157.41920138884</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.41968749999</v>
+        <v>738157.41968749999</v>
       </c>
       <c r="C3" s="0">
         <v>42.000003531575203</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.42002314818</v>
+        <v>738157.42002314818</v>
       </c>
       <c r="C4" s="0">
         <v>71.000007167458534</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.42038194439</v>
+        <v>738157.42038194439</v>
       </c>
       <c r="C5" s="0">
         <v>101.99999995529652</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.42071759258</v>
+        <v>738157.42071759258</v>
       </c>
       <c r="C6" s="0">
         <v>131.00000359117985</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.42107638891</v>
+        <v>738157.42107638891</v>
       </c>
       <c r="C7" s="0">
         <v>162.00000643730164</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.42177083332</v>
+        <v>738157.42177083332</v>
       </c>
       <c r="C8" s="0">
         <v>222.00000286102295</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.42211805552</v>
+        <v>738157.42211805552</v>
       </c>
       <c r="C9" s="0">
         <v>252.00000107288361</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.42246527784</v>
+        <v>738157.42246527784</v>
       </c>
       <c r="C10" s="0">
         <v>282.00000934302807</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.42281250004</v>
+        <v>738157.42281250004</v>
       </c>
       <c r="C11" s="0">
         <v>312.00000755488873</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.42317129625</v>
+        <v>738157.42317129625</v>
       </c>
       <c r="C12" s="0">
         <v>343.00000034272671</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.42350694444</v>
+        <v>738157.42350694444</v>
       </c>
       <c r="C13" s="0">
         <v>372.00000397861004</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.42384259263</v>
+        <v>738157.42384259263</v>
       </c>
       <c r="C14" s="0">
         <v>401.00000761449337</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.42420138884</v>
+        <v>738157.42420138884</v>
       </c>
       <c r="C15" s="0">
         <v>432.00000040233135</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.42453703703</v>
+        <v>738157.42453703703</v>
       </c>
       <c r="C16" s="0">
         <v>461.00000403821468</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.42488425924</v>
+        <v>738157.42488425924</v>
       </c>
       <c r="C17" s="0">
         <v>491.00000225007534</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.42523148144</v>
+        <v>738157.42523148144</v>
       </c>
       <c r="C18" s="0">
         <v>521.000000461936</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.42557870375</v>
+        <v>738157.42557870375</v>
       </c>
       <c r="C19" s="0">
         <v>551.00000873208046</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.4259490741</v>
+        <v>738157.4259490741</v>
       </c>
       <c r="C20" s="0">
         <v>583.00000615417957</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.42628472217</v>
+        <v>738157.42628472217</v>
       </c>
       <c r="C21" s="0">
         <v>611.9999997317791</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.42680555559</v>
+        <v>738157.42680555559</v>
       </c>
       <c r="C22" s="0">
         <v>657.00000710785389</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.42712962965</v>
+        <v>738157.42712962965</v>
       </c>
       <c r="C23" s="0">
         <v>685.00000610947609</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.42781250004</v>
+        <v>738157.42781250004</v>
       </c>
       <c r="C24" s="0">
         <v>744.00000795722008</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.42781250004</v>
+        <v>738157.42781250004</v>
       </c>
       <c r="C25" s="0">
         <v>744.00000795722008</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.42815972224</v>
+        <v>738157.42815972224</v>
       </c>
       <c r="C26" s="0">
         <v>774.00000616908073</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.42856481485</v>
+        <v>738157.42856481485</v>
       </c>
       <c r="C27" s="0">
         <v>809.00000743567944</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.42890046292</v>
+        <v>738157.42890046292</v>
       </c>
       <c r="C28" s="0">
         <v>838.00000101327896</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.42954861117</v>
+        <v>738157.42954861117</v>
       </c>
       <c r="C29" s="0">
         <v>894.00000907480717</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.42991898151</v>
+        <v>738157.42991898151</v>
       </c>
       <c r="C30" s="0">
         <v>926.00000649690628</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.43025462958</v>
+        <v>738157.43025462958</v>
       </c>
       <c r="C31" s="0">
         <v>955.00000007450581</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.43059027777</v>
+        <v>738157.43059027777</v>
       </c>
       <c r="C32" s="0">
         <v>984.00000371038914</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.4309490741</v>
+        <v>738157.4309490741</v>
       </c>
       <c r="C33" s="0">
         <v>1015.0000065565109</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.4312962963</v>
+        <v>738157.4312962963</v>
       </c>
       <c r="C34" s="0">
         <v>1045.0000047683716</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.4316435185</v>
+        <v>738157.4316435185</v>
       </c>
       <c r="C35" s="0">
         <v>1075.0000029802322</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.43200231483</v>
+        <v>738157.43200231483</v>
       </c>
       <c r="C36" s="0">
         <v>1106.000005826354</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.43233796302</v>
+        <v>738157.43233796302</v>
       </c>
       <c r="C37" s="0">
         <v>1135.0000094622374</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.43268518522</v>
+        <v>738157.43268518522</v>
       </c>
       <c r="C38" s="0">
         <v>1165.000007674098</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.43303240743</v>
+        <v>738157.43303240743</v>
       </c>
       <c r="C39" s="0">
         <v>1195.0000058859587</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.43337962963</v>
+        <v>738157.43337962963</v>
       </c>
       <c r="C40" s="0">
         <v>1225.0000040978193</v>
